--- a/planilha_modelo_template_saidas.xlsx
+++ b/planilha_modelo_template_saidas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>ID do Cenário</t>
   </si>
@@ -49,12 +49,15 @@
     <t>IPI1</t>
   </si>
   <si>
+    <t>tipo_contabilizacao</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2023-01-11 00:00:00</t>
   </si>
   <si>
@@ -65,6 +68,12 @@
   </si>
   <si>
     <t>Divisão1</t>
+  </si>
+  <si>
+    <t>COM RESSARCIMENTO</t>
+  </si>
+  <si>
+    <t>SEM RESSARCIMENTO</t>
   </si>
 </sst>
 </file>
@@ -422,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,22 +471,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>12200005</v>
+        <v>12151001</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>33632544</v>
+        <v>33632614</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -486,94 +498,103 @@
         <v>2000</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J2">
-        <v>0.004892564088533439</v>
+        <v>0.01095323796662737</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>12200005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>33632897</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="G3">
+        <v>3000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0.46</v>
+      </c>
+      <c r="J3">
+        <v>0.3687883263586266</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>12151001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>33632988</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.02066956424185577</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>12151001</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="E3">
-        <v>33632614</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-      <c r="G3">
-        <v>2000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>0.01</v>
-      </c>
-      <c r="J3">
-        <v>0.01095323796662737</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>12200005</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>33632897</v>
-      </c>
-      <c r="F4">
-        <v>2000</v>
-      </c>
-      <c r="G4">
-        <v>2900</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>4.97</v>
-      </c>
-      <c r="J4">
-        <v>0.6742531520307613</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>12200005</v>
@@ -582,42 +603,45 @@
         <v>15</v>
       </c>
       <c r="E5">
+        <v>33632544</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.004892564088533439</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>12200005</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>33632897</v>
-      </c>
-      <c r="F5">
-        <v>3000</v>
-      </c>
-      <c r="G5">
-        <v>3000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>0.46</v>
-      </c>
-      <c r="J5">
-        <v>0.3687883263586266</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>12151001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>33632988</v>
       </c>
       <c r="F6">
         <v>2000</v>
@@ -626,24 +650,27 @@
         <v>2900</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>5.97</v>
+        <v>4.97</v>
       </c>
       <c r="J6">
-        <v>0.04029852373747878</v>
+        <v>0.6742531520307613</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>12151001</v>
@@ -655,22 +682,25 @@
         <v>33632988</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.97</v>
       </c>
       <c r="J7">
-        <v>0.02066956424185577</v>
+        <v>0.04029852373747878</v>
       </c>
       <c r="K7">
         <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/planilha_modelo_template_saidas.xlsx
+++ b/planilha_modelo_template_saidas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>ID do Cenário</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>tipo_contabilizacao</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2023-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>STAC1000IN</t>
+  </si>
+  <si>
+    <t>STAC4000IN</t>
+  </si>
+  <si>
+    <t>Divisão1</t>
+  </si>
+  <si>
+    <t>COM RESSARCIMENTO</t>
+  </si>
+  <si>
+    <t>SEM RESSARCIMENTO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +475,234 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>12151001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>33632614</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2">
+        <v>1.188277288339041</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>12200005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>33632897</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="G3">
+        <v>3000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0.46</v>
+      </c>
+      <c r="J3">
+        <v>43.78503125379311</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>12151001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>33632988</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20.7793368662069</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>12200005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>33632544</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.004564766223246137</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>12200005</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>33632897</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <v>2900</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>4.97</v>
+      </c>
+      <c r="J6">
+        <v>50.16871580310346</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>12151001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>33632988</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>2900</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>5.97</v>
+      </c>
+      <c r="J7">
+        <v>23.14858689931035</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
